--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1327786.085170664</v>
+        <v>1325898.503654262</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800624</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>134.257450437519</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>88.37396379153448</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.34164242902995</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>386.9370489342188</v>
+        <v>207.2096032800586</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>130.8951884589056</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>4.252601227923032</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>92.39306372366613</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>43.31175043371119</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>229.5889480231533</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.287041390293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274114</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.84942852843601</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.33692702799578</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056513</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404418</v>
       </c>
       <c r="W19" t="n">
-        <v>101.391367342093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2175,10 +2175,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>146.2787299119453</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>262.5919994436171</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2412,10 +2412,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.52697680022</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274054</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014433</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,13 +2770,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>75.86294410302358</v>
+        <v>143.315822205652</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.99714353999572</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965546</v>
+        <v>45.4001232265363</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801227</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437434</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897923</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752359</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789486</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463068</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3724,7 +3724,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y40" t="n">
         <v>150.4527632224541</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463139</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415219</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2330.329327562361</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1999.266440218791</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1646.497784948677</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X2" t="n">
-        <v>1273.032026687597</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y2" t="n">
-        <v>882.8926947117852</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>76.51029740524319</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>224.4233909876363</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>224.4233909876363</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1336.435086552838</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.435086552838</v>
+        <v>1185.96319079745</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.435086552838</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="E5" t="n">
-        <v>1336.435086552838</v>
+        <v>827.6974921906992</v>
       </c>
       <c r="F5" t="n">
-        <v>925.4491817632304</v>
+        <v>416.7115874010917</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.03492661696</v>
+        <v>1185.96319079745</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.2769833124028</v>
+        <v>268.535689181137</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124028</v>
+        <v>496.5252400791543</v>
       </c>
       <c r="X7" t="n">
-        <v>336.2769833124028</v>
+        <v>268.535689181137</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.2769833124028</v>
+        <v>268.535689181137</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2598.371158686381</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2344.609373324472</v>
+        <v>2169.723949158871</v>
       </c>
       <c r="V8" t="n">
-        <v>2013.546485980902</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.546485980902</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.546485980902</v>
+        <v>1838.6610618153</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.546485980902</v>
+        <v>1838.6610618153</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245973</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>245.45494510253</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1435.431999317058</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1435.431999317058</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1211.646584106564</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>922.517945320122</v>
+        <v>786.0822064765188</v>
       </c>
       <c r="V13" t="n">
-        <v>667.8334571142351</v>
+        <v>531.3977182706319</v>
       </c>
       <c r="W13" t="n">
-        <v>667.8334571142351</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,25 +5264,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>177.1795914149472</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>844.0280401273993</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W16" t="n">
-        <v>844.0280401273993</v>
+        <v>241.9805482336711</v>
       </c>
       <c r="X16" t="n">
-        <v>616.038489229382</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>616.038489229382</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,22 +5540,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5592,19 +5592,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765189</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V19" t="n">
-        <v>531.397718270632</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W19" t="n">
-        <v>428.9821957028613</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X19" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514102</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515101</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619133</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5814,40 +5814,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126485</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571617</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636264</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643589</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307622</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.91651652632</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5908,52 +5908,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471204</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473457</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262963</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765212</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706343</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W22" t="n">
-        <v>266.1532743881928</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514096</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6051,40 +6051,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126485</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571617</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636264</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643589</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307622</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.91651652632</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6145,46 +6145,46 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799373</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471204</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980066</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585749</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011508</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>325.2066423583033</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
         <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823792</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514096</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.1647015151</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643329</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899133</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207836</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6288,37 +6288,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316293</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358146</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675023</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126485</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571617</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636264</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643589</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307622</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.91651652632</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799371</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471201</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473457</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262963</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765212</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V28" t="n">
-        <v>786.0822064765212</v>
+        <v>531.3977182706321</v>
       </c>
       <c r="W28" t="n">
-        <v>786.0822064765212</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X28" t="n">
-        <v>709.4529700088207</v>
+        <v>97.21709146028573</v>
       </c>
       <c r="Y28" t="n">
-        <v>709.4529700088207</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6546,16 +6546,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248444</v>
+        <v>439.5324299542183</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783081</v>
+        <v>326.3571123076822</v>
       </c>
       <c r="D31" t="n">
-        <v>487.570001547343</v>
+        <v>280.4984019778477</v>
       </c>
       <c r="E31" t="n">
-        <v>395.4177732463205</v>
+        <v>188.3461736768254</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297808</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>191.874234630972</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933497</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962046</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096192</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818908</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652442</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652442</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6695,28 +6695,28 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.1932370805469</v>
@@ -6935,49 +6935,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,22 +7017,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,13 +7157,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7181,19 +7181,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,22 +7330,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649697</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
@@ -7357,10 +7357,10 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,7 +7400,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7412,25 +7412,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7491,22 +7491,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,28 +7567,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525404</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,7 +7603,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,16 +7649,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643324</v>
@@ -7670,28 +7670,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>223.1552313137082</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,19 +7825,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516222</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,19 +8769,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>38.8600230194987</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>38.86002301949867</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9240,22 +9240,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>19.14409596997035</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776707</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928253</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776707</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>199.7396287231146</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987297522</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776707</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445199</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>50.62661940943661</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>213.260391180663</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>283.6093329825497</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>85.30006332127742</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>47.11492387535677</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.4950531539415</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338582</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>82.39383318338622</v>
       </c>
       <c r="W19" t="n">
-        <v>185.131630994498</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>75.26883114644374</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>23.93099889297389</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338322</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>149.8467112860136</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.63158001338468</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>48.01209316311898</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571509</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.110667527536862e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>6.750155989720952e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>952727.6193013648</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>952727.619301365</v>
+        <v>952727.6193013649</v>
       </c>
     </row>
     <row r="11">
@@ -26317,43 +26317,43 @@
         <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="G2" t="n">
         <v>430131.9657114796</v>
       </c>
-      <c r="G2" t="n">
-        <v>430131.9657114795</v>
-      </c>
       <c r="H2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="K2" t="n">
-        <v>447504.3510797972</v>
+        <v>447504.3510797973</v>
       </c>
       <c r="L2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253561</v>
       </c>
       <c r="M2" t="n">
         <v>451572.9734253563</v>
       </c>
       <c r="N2" t="n">
+        <v>451572.9734253562</v>
+      </c>
+      <c r="O2" t="n">
+        <v>451572.9734253562</v>
+      </c>
+      <c r="P2" t="n">
         <v>451572.9734253563</v>
-      </c>
-      <c r="O2" t="n">
-        <v>451572.9734253563</v>
-      </c>
-      <c r="P2" t="n">
-        <v>451572.9734253562</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,31 +26381,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.044609689415665e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284444</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086699</v>
+        <v>10342.90680086686</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028455</v>
+        <v>44162.60530284578</v>
       </c>
     </row>
     <row r="4">
@@ -26424,25 +26424,25 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143908</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143907</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143908</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563559</v>
+        <v>33210.29213563566</v>
       </c>
       <c r="L4" t="n">
         <v>37464.45686275957</v>
@@ -26451,13 +26451,13 @@
         <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275956</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26482,22 +26482,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
@@ -26522,46 +26522,46 @@
         <v>-378028.9421038205</v>
       </c>
       <c r="C6" t="n">
-        <v>211938.937110724</v>
+        <v>211938.9371107239</v>
       </c>
       <c r="D6" t="n">
         <v>211938.9371107239</v>
       </c>
       <c r="E6" t="n">
-        <v>-202061.0663355722</v>
+        <v>-202158.5254615442</v>
       </c>
       <c r="F6" t="n">
-        <v>323098.9701413239</v>
+        <v>323001.5110153518</v>
       </c>
       <c r="G6" t="n">
-        <v>323098.9701413237</v>
+        <v>323001.5110153517</v>
       </c>
       <c r="H6" t="n">
-        <v>323098.9701413229</v>
+        <v>323001.5110153517</v>
       </c>
       <c r="I6" t="n">
-        <v>323098.970141324</v>
+        <v>323001.5110153516</v>
       </c>
       <c r="J6" t="n">
-        <v>146675.750948731</v>
+        <v>146578.291822759</v>
       </c>
       <c r="K6" t="n">
-        <v>273503.2451110944</v>
+        <v>273484.7513731588</v>
       </c>
       <c r="L6" t="n">
         <v>306050.5039417043</v>
       </c>
       <c r="M6" t="n">
-        <v>181592.3955087341</v>
+        <v>181592.395508734</v>
       </c>
       <c r="N6" t="n">
-        <v>316393.4107425713</v>
+        <v>316393.4107425711</v>
       </c>
       <c r="O6" t="n">
-        <v>316393.4107425713</v>
+        <v>316393.4107425712</v>
       </c>
       <c r="P6" t="n">
-        <v>272230.8054397258</v>
+        <v>272230.8054397255</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26753,13 +26753,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541017</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108374</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,16 +26975,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.423548596878469e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>116.9667170707703</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>260.8670049258785</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,10 +27543,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>123.0794055939013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27585,25 +27585,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>26.84712108657618</v>
+        <v>206.5745667407363</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>36.35163263972228</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>282.270397108668</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>290.3407779398144</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>173.1365699239466</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>22.54869530067472</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>196.2976119618018</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29509,10 +29509,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285569</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304449</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565528</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458555</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361502</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298637</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171323</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443622</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444951</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176654</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961209</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041495</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304449</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565528</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927196</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540896</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130947001</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647502</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104662</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354898</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354106</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127075</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215737</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622987</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358991</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724854</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.536285481347</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855533</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458555</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.895220109512</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.1761272367747</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361502</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081167</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298637</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196128</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065636</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469076</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337681</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336905</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892256</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351828</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>189.4354616074379</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>80.77020197440535</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,13 +35732,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556551</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35820,7 +35820,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
         <v>39.22569997187476</v>
@@ -35893,7 +35893,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>301.5077982110785</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556551</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36057,7 +36057,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
         <v>39.22569997187476</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953158</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005183</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.257704956025</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980136</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.502597509196</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209236</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221054</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081129</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349844</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953158</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005183</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.257704956025</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504671</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.502597509196</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209236</v>
+        <v>287.7526615081887</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415084</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109081</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221126</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081129</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951482</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502054</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349123</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953158</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005183</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.257704956025</v>
+        <v>462.5180961366875</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504671</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980136</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411089</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.502597509196</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556572</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299109</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.276877805604</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118011</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187496</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412242</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403576</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043165</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>299.8843243654609</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,13 +37397,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,16 +37868,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>490.7027479140744</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761841</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
